--- a/task.xlsx
+++ b/task.xlsx
@@ -54,6 +54,9 @@
     <t>Layout ( index.html của trang chính, admin, customer )</t>
   </si>
   <si>
+    <t>Tuấn + Trường</t>
+  </si>
+  <si>
     <t>Trường</t>
   </si>
   <si>
@@ -87,10 +90,7 @@
     <t>3 api còn lại của trang customer: render modal của giỏ hàng, thay đổi số lượng sản phẩm trong giỏ hàng, xóa sản phẩm cụ thể khỏi giỏ hàng</t>
   </si>
   <si>
-    <t>Tuấn + Trường</t>
-  </si>
-  <si>
-    <t>Các chức năng khác: hiển thị thông tin tổng giá tiền của tất cả sản phẩm trong giỏ hàng, hiển thị tổng số lượng sản phẩm ở icon giỏ hàng, nút chức năng Purchase và các modal thông báo . Deploy lên surge.</t>
+    <t>Các chức năng : hiển thị thông tin tổng giá tiền của tất cả sản phẩm trong giỏ hàng, hiển thị tổng số lượng sản phẩm ở icon giỏ hàng, nút chức năng Purchase và các modal thông báo . Deploy lên surge.</t>
   </si>
 </sst>
 </file>
@@ -640,13 +640,13 @@
         <v>1.0</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2" s="12"/>
     </row>
     <row r="3" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A3" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="8">
         <v>45698.0</v>
@@ -658,7 +658,7 @@
         <v>0.5</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="8">
         <v>45698.0</v>
@@ -670,13 +670,13 @@
         <v>0.5</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J3" s="12"/>
     </row>
     <row r="4" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="8">
         <v>45699.0</v>
@@ -689,7 +689,7 @@
         <v>0.9</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="8">
         <v>45699.0</v>
@@ -702,13 +702,13 @@
         <v>0.9</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J4" s="12"/>
     </row>
     <row r="5" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A5" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="8">
         <v>45700.0</v>
@@ -720,7 +720,7 @@
         <v>1.0</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" s="8">
         <v>45700.0</v>
@@ -732,13 +732,13 @@
         <v>1.0</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J5" s="12"/>
     </row>
     <row r="6" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A6" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="8">
         <v>45701.0</v>
@@ -750,7 +750,7 @@
         <v>0.9</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" s="8">
         <v>45701.0</v>
@@ -762,13 +762,13 @@
         <v>0.9</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J6" s="12"/>
     </row>
     <row r="7" ht="9.0" hidden="1" customHeight="1" outlineLevel="2">
       <c r="A7" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="8">
         <v>45702.0</v>
@@ -780,7 +780,7 @@
         <v>0.8</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" s="8">
         <v>45702.0</v>
@@ -792,13 +792,13 @@
         <v>0.8</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J7" s="20"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="8">
         <v>45688.0</v>
@@ -810,7 +810,7 @@
         <v>1.0</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" s="8">
         <v>45697.0</v>
@@ -822,13 +822,13 @@
         <v>1.0</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J8" s="12"/>
     </row>
     <row r="9" ht="56.25" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="8">
         <v>45688.0</v>
@@ -840,7 +840,7 @@
         <v>1.0</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" s="8">
         <v>45697.0</v>
@@ -852,13 +852,13 @@
         <v>0.95</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J9" s="12"/>
     </row>
     <row r="10" ht="66.0" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="8">
         <v>45688.0</v>
@@ -870,7 +870,7 @@
         <v>1.0</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F10" s="8">
         <v>45697.0</v>
@@ -882,7 +882,7 @@
         <v>0.9</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J10" s="12"/>
     </row>
@@ -900,7 +900,7 @@
         <v>1.0</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" s="8">
         <v>45697.0</v>
@@ -912,7 +912,7 @@
         <v>0.95</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J11" s="12"/>
     </row>

--- a/task.xlsx
+++ b/task.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="omOsr6IkkViOi9iOVEngxHvmeJSN12Ww+BvuLUuwsFY="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="ik3sBgNt5CjUkLs+D7WR19Bp2qfmuR5LrXpW5RR2zGs="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -60,22 +60,10 @@
     <t>Trường</t>
   </si>
   <si>
-    <t xml:space="preserve">     Logo</t>
-  </si>
-  <si>
-    <t>Dev A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Navbar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Submenu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Search form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      Login popup</t>
+    <t>Trang admin: sort theo giá tiền, tìm theo tên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuấn </t>
   </si>
   <si>
     <t>5 api của admin cho các chức năng gồm: fetch trang, tạo mới, xóa, lấy thông tin và cập nhật thông tin sản phẩm</t>
@@ -100,7 +88,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -122,11 +110,6 @@
     <font>
       <sz val="9.0"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -269,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -309,34 +292,21 @@
     <xf borderId="6" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="6" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="6" fontId="3" numFmtId="9" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="4" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="5" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="5" fillId="5" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="9" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="6" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="6" fontId="3" numFmtId="9" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="5" fillId="5" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
@@ -569,7 +539,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0" outlineLevelRow="2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="22.5"/>
     <col customWidth="1" min="2" max="4" width="7.63"/>
@@ -582,7 +552,7 @@
     <col customWidth="1" min="11" max="26" width="7.63"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" customHeight="1">
+    <row r="1" ht="42.0" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -614,7 +584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="21.75" customHeight="1" collapsed="1">
+    <row r="2" ht="41.25" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
@@ -644,121 +614,119 @@
       </c>
       <c r="J2" s="12"/>
     </row>
-    <row r="3" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="13" t="s">
+    <row r="3" ht="41.25" customHeight="1">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="8">
-        <v>45698.0</v>
+        <v>45688.0</v>
       </c>
       <c r="C3" s="8">
-        <v>45699.0</v>
-      </c>
-      <c r="D3" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="E3" s="15" t="s">
+        <v>45697.0</v>
+      </c>
+      <c r="D3" s="13">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="8">
-        <v>45698.0</v>
+        <v>45697.0</v>
       </c>
       <c r="G3" s="8">
-        <v>45698.0</v>
-      </c>
-      <c r="H3" s="16">
-        <v>0.5</v>
+        <v>45697.0</v>
+      </c>
+      <c r="H3" s="11">
+        <v>1.0</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>11</v>
       </c>
       <c r="J3" s="12"/>
     </row>
-    <row r="4" ht="14.25" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A4" s="17" t="s">
+    <row r="4">
+      <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="8">
-        <v>45699.0</v>
+        <v>45688.0</v>
       </c>
       <c r="C4" s="8">
-        <v>45700.0</v>
-      </c>
-      <c r="D4" s="18">
-        <f>SUM(D5:D7)/3</f>
-        <v>0.9</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>13</v>
+        <v>45697.0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="F4" s="8">
-        <v>45699.0</v>
+        <v>45697.0</v>
       </c>
       <c r="G4" s="8">
-        <v>45699.0</v>
-      </c>
-      <c r="H4" s="19">
-        <f>SUM(H5:H7)/3</f>
-        <v>0.9</v>
+        <v>45697.0</v>
+      </c>
+      <c r="H4" s="14">
+        <v>1.0</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>11</v>
       </c>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
-      <c r="A5" s="13" t="s">
+    <row r="5" ht="56.25" customHeight="1">
+      <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="8">
-        <v>45700.0</v>
+        <v>45688.0</v>
       </c>
       <c r="C5" s="8">
-        <v>45701.0</v>
-      </c>
-      <c r="D5" s="18">
+        <v>45697.0</v>
+      </c>
+      <c r="D5" s="9">
         <v>1.0</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>13</v>
+      <c r="E5" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="F5" s="8">
-        <v>45700.0</v>
+        <v>45697.0</v>
       </c>
       <c r="G5" s="8">
-        <v>45700.0</v>
-      </c>
-      <c r="H5" s="19">
-        <v>1.0</v>
+        <v>45697.0</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0.95</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" ht="14.25" hidden="1" customHeight="1" outlineLevel="2">
-      <c r="A6" s="13" t="s">
-        <v>16</v>
+    <row r="6" ht="66.0" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="B6" s="8">
-        <v>45701.0</v>
+        <v>45688.0</v>
       </c>
       <c r="C6" s="8">
-        <v>45702.0</v>
-      </c>
-      <c r="D6" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>13</v>
+        <v>45697.0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="F6" s="8">
-        <v>45701.0</v>
+        <v>45697.0</v>
       </c>
       <c r="G6" s="8">
-        <v>45701.0</v>
-      </c>
-      <c r="H6" s="19">
+        <v>45697.0</v>
+      </c>
+      <c r="H6" s="11">
         <v>0.9</v>
       </c>
       <c r="I6" s="10" t="s">
@@ -766,192 +734,76 @@
       </c>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" ht="9.0" hidden="1" customHeight="1" outlineLevel="2">
-      <c r="A7" s="13" t="s">
-        <v>17</v>
+    <row r="7" ht="74.25" customHeight="1">
+      <c r="A7" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B7" s="8">
-        <v>45702.0</v>
+        <v>45688.0</v>
       </c>
       <c r="C7" s="8">
-        <v>45703.0</v>
-      </c>
-      <c r="D7" s="18">
-        <v>0.8</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>13</v>
+        <v>45697.0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="F7" s="8">
-        <v>45702.0</v>
+        <v>45697.0</v>
       </c>
       <c r="G7" s="8">
-        <v>45702.0</v>
-      </c>
-      <c r="H7" s="19">
-        <v>0.8</v>
+        <v>45697.0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0.95</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="20"/>
+      <c r="J7" s="12"/>
     </row>
-    <row r="8">
-      <c r="A8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="8">
-        <v>45688.0</v>
-      </c>
-      <c r="C8" s="8">
-        <v>45697.0</v>
-      </c>
-      <c r="D8" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="8">
-        <v>45697.0</v>
-      </c>
-      <c r="G8" s="8">
-        <v>45697.0</v>
-      </c>
-      <c r="H8" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>11</v>
-      </c>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="18"/>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" ht="56.25" customHeight="1">
-      <c r="A9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="8">
-        <v>45688.0</v>
-      </c>
-      <c r="C9" s="8">
-        <v>45697.0</v>
-      </c>
-      <c r="D9" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="8">
-        <v>45697.0</v>
-      </c>
-      <c r="G9" s="8">
-        <v>45697.0</v>
-      </c>
-      <c r="H9" s="11">
-        <v>0.95</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>11</v>
-      </c>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="18"/>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" ht="66.0" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="8">
-        <v>45688.0</v>
-      </c>
-      <c r="C10" s="8">
-        <v>45697.0</v>
-      </c>
-      <c r="D10" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="8">
-        <v>45697.0</v>
-      </c>
-      <c r="G10" s="8">
-        <v>45697.0</v>
-      </c>
-      <c r="H10" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>11</v>
-      </c>
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="18"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" ht="74.25" customHeight="1">
-      <c r="A11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="8">
-        <v>45688.0</v>
-      </c>
-      <c r="C11" s="8">
-        <v>45697.0</v>
-      </c>
-      <c r="D11" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="8">
-        <v>45697.0</v>
-      </c>
-      <c r="G11" s="8">
-        <v>45697.0</v>
-      </c>
-      <c r="H11" s="11">
-        <v>0.95</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="17"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="17"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="17"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="12"/>
-    </row>
+    <row r="11" ht="14.25" customHeight="1"/>
+    <row r="12" ht="14.25" customHeight="1"/>
+    <row r="13" ht="14.25" customHeight="1"/>
+    <row r="14" ht="14.25" customHeight="1"/>
     <row r="15" ht="14.25" customHeight="1"/>
     <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
@@ -1920,17 +1772,13 @@
     <row r="980" ht="14.25" customHeight="1"/>
     <row r="981" ht="14.25" customHeight="1"/>
     <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
   </sheetData>
-  <conditionalFormatting sqref="D2 D4:D14">
+  <conditionalFormatting sqref="D2:D10">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2 H4:H14">
+  <conditionalFormatting sqref="H2:H10">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0.99</formula>
     </cfRule>
